--- a/simulation_data/two_step_algorithm/2s_error_level_9_percent_water_80.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_9_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.54800818770892</v>
+        <v>94.83844691522764</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44241777409543</v>
+        <v>16.88523594422989</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.9805500090896</v>
+        <v>92.60410304036384</v>
       </c>
       <c r="D3" t="n">
-        <v>18.23636585251872</v>
+        <v>19.71247787184429</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.35169397403797</v>
+        <v>91.97784476193348</v>
       </c>
       <c r="D4" t="n">
-        <v>15.57128099271843</v>
+        <v>16.96386555077578</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>91.41288615682403</v>
+        <v>90.94710833566778</v>
       </c>
       <c r="D5" t="n">
-        <v>17.66662334425463</v>
+        <v>15.73700219984256</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.05448139800497</v>
+        <v>88.2535296620301</v>
       </c>
       <c r="D6" t="n">
-        <v>17.11257800850619</v>
+        <v>15.51665962702937</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.14105700536855</v>
+        <v>86.24271889003805</v>
       </c>
       <c r="D7" t="n">
-        <v>16.81482529718543</v>
+        <v>15.80852957924471</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.3841071365169</v>
+        <v>89.98254537414354</v>
       </c>
       <c r="D8" t="n">
-        <v>18.51813871459197</v>
+        <v>18.11950841981451</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.0263814132873</v>
+        <v>87.171709919379</v>
       </c>
       <c r="D9" t="n">
-        <v>16.33117971434001</v>
+        <v>17.06745985659293</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.55585266354066</v>
+        <v>85.388416677045</v>
       </c>
       <c r="D10" t="n">
-        <v>16.11835302006189</v>
+        <v>17.75165282810678</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.56786470980043</v>
+        <v>80.92078915269691</v>
       </c>
       <c r="D11" t="n">
-        <v>17.31227207320518</v>
+        <v>17.73633502247744</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.37308311034137</v>
+        <v>82.02054899090218</v>
       </c>
       <c r="D12" t="n">
-        <v>15.57151905624925</v>
+        <v>18.33357680049361</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>84.19105556734114</v>
+        <v>80.20777197328144</v>
       </c>
       <c r="D13" t="n">
-        <v>16.78565134868074</v>
+        <v>17.59278718813881</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>82.13433288721062</v>
+        <v>78.20253580113859</v>
       </c>
       <c r="D14" t="n">
-        <v>17.18350044899414</v>
+        <v>18.22447638459175</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.70051473324439</v>
+        <v>77.0364746450031</v>
       </c>
       <c r="D15" t="n">
-        <v>17.23134477603278</v>
+        <v>16.42102064391839</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>81.60220340157908</v>
+        <v>77.57800890214638</v>
       </c>
       <c r="D16" t="n">
-        <v>15.78832210926583</v>
+        <v>17.82799495743843</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.73523619739753</v>
+        <v>78.72132581982055</v>
       </c>
       <c r="D17" t="n">
-        <v>17.56939520242183</v>
+        <v>17.55105951822466</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>78.75173870969445</v>
+        <v>75.44317381730484</v>
       </c>
       <c r="D18" t="n">
-        <v>15.7849282321704</v>
+        <v>14.98486953613758</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.22129520932599</v>
+        <v>74.32503716499471</v>
       </c>
       <c r="D19" t="n">
-        <v>16.88271444980779</v>
+        <v>14.60889421659238</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>75.60992819473653</v>
+        <v>72.4799865480023</v>
       </c>
       <c r="D20" t="n">
-        <v>15.19724043074517</v>
+        <v>17.99341111783037</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.9510899569179</v>
+        <v>71.81665843101312</v>
       </c>
       <c r="D21" t="n">
-        <v>17.41646759286243</v>
+        <v>15.88785433689729</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.92295841358542</v>
+        <v>70.83029944774123</v>
       </c>
       <c r="D22" t="n">
-        <v>18.12389905119228</v>
+        <v>17.7320259251213</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.38201629068114</v>
+        <v>72.78854299559954</v>
       </c>
       <c r="D23" t="n">
-        <v>18.18454102290039</v>
+        <v>17.97007589290402</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.35177245958684</v>
+        <v>70.09113523652792</v>
       </c>
       <c r="D24" t="n">
-        <v>17.15984390943439</v>
+        <v>18.61666892563928</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.87505347057584</v>
+        <v>66.28519115410251</v>
       </c>
       <c r="D25" t="n">
-        <v>15.43773041976692</v>
+        <v>19.1638998818253</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.58623285513362</v>
+        <v>66.94444695815784</v>
       </c>
       <c r="D26" t="n">
-        <v>17.63593455511515</v>
+        <v>16.46255355044186</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.20627443217398</v>
+        <v>64.11382637125617</v>
       </c>
       <c r="D27" t="n">
-        <v>16.03701421459431</v>
+        <v>17.60342428477973</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.65275364175113</v>
+        <v>65.21276189443108</v>
       </c>
       <c r="D28" t="n">
-        <v>17.1302839668203</v>
+        <v>17.51565119320424</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.85789478371854</v>
+        <v>64.05437733416512</v>
       </c>
       <c r="D29" t="n">
-        <v>17.78030247686592</v>
+        <v>15.8299794758644</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.25883715177552</v>
+        <v>63.04367404701463</v>
       </c>
       <c r="D30" t="n">
-        <v>16.0344186768334</v>
+        <v>15.55175335941244</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>64.35379127540095</v>
+        <v>63.04882626574818</v>
       </c>
       <c r="D31" t="n">
-        <v>15.77418561875402</v>
+        <v>16.63105553536353</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.07502492825908</v>
+        <v>59.96184665950236</v>
       </c>
       <c r="D32" t="n">
-        <v>15.07976549580967</v>
+        <v>15.84236485231162</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>61.55384655331234</v>
+        <v>58.75093547848273</v>
       </c>
       <c r="D33" t="n">
-        <v>18.0689718620273</v>
+        <v>16.55706786301907</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.34564979483559</v>
+        <v>57.63611346158111</v>
       </c>
       <c r="D34" t="n">
-        <v>17.64747867016483</v>
+        <v>16.02921617511676</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>55.53931371085758</v>
+        <v>56.35548565131467</v>
       </c>
       <c r="D35" t="n">
-        <v>17.25114124206538</v>
+        <v>16.41122587698894</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>53.02975986773789</v>
+        <v>59.75391014151345</v>
       </c>
       <c r="D36" t="n">
-        <v>16.00059943422879</v>
+        <v>16.62123785538109</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>52.57301459719568</v>
+        <v>54.79113184042651</v>
       </c>
       <c r="D37" t="n">
-        <v>15.59636022758244</v>
+        <v>17.57462051932559</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>52.38062957802638</v>
+        <v>54.35225341684914</v>
       </c>
       <c r="D38" t="n">
-        <v>15.01807949998573</v>
+        <v>18.31988382767306</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>55.20021076938468</v>
+        <v>54.54605297889776</v>
       </c>
       <c r="D39" t="n">
-        <v>17.03037889677354</v>
+        <v>16.9925138950435</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.77375998196534</v>
+        <v>50.73044721251767</v>
       </c>
       <c r="D40" t="n">
-        <v>15.62901982630783</v>
+        <v>15.81101591265409</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.80715586733477</v>
+        <v>51.78332002175477</v>
       </c>
       <c r="D41" t="n">
-        <v>13.32215263575603</v>
+        <v>14.38466573946084</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>52.08006710129086</v>
+        <v>51.9605850615116</v>
       </c>
       <c r="D42" t="n">
-        <v>18.6692896922564</v>
+        <v>17.0296239913363</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.06141322774965</v>
+        <v>49.26236709118965</v>
       </c>
       <c r="D43" t="n">
-        <v>17.88391518865216</v>
+        <v>14.67485395970335</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.55451380516644</v>
+        <v>47.57381702947</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23136287028926</v>
+        <v>18.26344362517099</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.54076365109869</v>
+        <v>46.76601354679278</v>
       </c>
       <c r="D45" t="n">
-        <v>17.03843918041553</v>
+        <v>16.76167815267677</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>42.08895538204393</v>
+        <v>44.39632117540204</v>
       </c>
       <c r="D46" t="n">
-        <v>17.37132421624595</v>
+        <v>14.07434963910982</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.69916857640994</v>
+        <v>45.67994665734039</v>
       </c>
       <c r="D47" t="n">
-        <v>15.85516408619468</v>
+        <v>15.88604366372923</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>40.92911001931554</v>
+        <v>45.36373855127319</v>
       </c>
       <c r="D48" t="n">
-        <v>15.06646466911392</v>
+        <v>17.32515274697101</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>47.40234590507406</v>
+        <v>42.50002282814151</v>
       </c>
       <c r="D49" t="n">
-        <v>17.82622540594506</v>
+        <v>16.7871444166836</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>44.23029601571239</v>
+        <v>42.28118630452368</v>
       </c>
       <c r="D50" t="n">
-        <v>16.73344370590083</v>
+        <v>16.20389913219373</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.09842146591451</v>
+        <v>40.10521678748313</v>
       </c>
       <c r="D51" t="n">
-        <v>16.4211334156576</v>
+        <v>17.80716794526842</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.12163123414874</v>
+        <v>40.18260078716711</v>
       </c>
       <c r="D52" t="n">
-        <v>17.15120532306949</v>
+        <v>15.13110366081996</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.45057134102782</v>
+        <v>38.43417807945916</v>
       </c>
       <c r="D53" t="n">
-        <v>18.53466667475752</v>
+        <v>18.1501232213679</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>35.95471993245309</v>
+        <v>35.74783101795336</v>
       </c>
       <c r="D54" t="n">
-        <v>15.91217284134281</v>
+        <v>16.08185781188295</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.24263782393281</v>
+        <v>36.71220285700665</v>
       </c>
       <c r="D55" t="n">
-        <v>16.08828210349377</v>
+        <v>16.14344924249338</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.5243884991479</v>
+        <v>36.52807714911498</v>
       </c>
       <c r="D56" t="n">
-        <v>17.17692743924869</v>
+        <v>17.23248197582459</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>38.76433590896826</v>
+        <v>34.62450539101554</v>
       </c>
       <c r="D57" t="n">
-        <v>16.94623034027174</v>
+        <v>16.50167128195022</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.16511030772915</v>
+        <v>36.99838419138511</v>
       </c>
       <c r="D58" t="n">
-        <v>16.34744441376344</v>
+        <v>15.37600988997298</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>30.71751836594159</v>
+        <v>33.22204528632926</v>
       </c>
       <c r="D59" t="n">
-        <v>19.36888081274957</v>
+        <v>17.37677023662954</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.31285007958446</v>
+        <v>29.39648896226112</v>
       </c>
       <c r="D60" t="n">
-        <v>15.48547537114523</v>
+        <v>15.41816890119945</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.96098277245959</v>
+        <v>31.52020034659391</v>
       </c>
       <c r="D61" t="n">
-        <v>16.94758081217116</v>
+        <v>16.8913417522405</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.37274870134039</v>
+        <v>25.42656197811354</v>
       </c>
       <c r="D62" t="n">
-        <v>16.11612973970939</v>
+        <v>16.92141987666808</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.01951089021053</v>
+        <v>26.13692320362955</v>
       </c>
       <c r="D63" t="n">
-        <v>16.25979313023512</v>
+        <v>15.66292419015898</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>29.38196450998545</v>
+        <v>26.24065362282277</v>
       </c>
       <c r="D64" t="n">
-        <v>14.50935173917402</v>
+        <v>15.01549762163731</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>29.11133948017736</v>
+        <v>24.91212936623133</v>
       </c>
       <c r="D65" t="n">
-        <v>17.31259773410741</v>
+        <v>18.11179647859069</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.46666971936045</v>
+        <v>25.9968762230705</v>
       </c>
       <c r="D66" t="n">
-        <v>17.27790443803655</v>
+        <v>14.9389722189569</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.34837208761115</v>
+        <v>22.78208575615793</v>
       </c>
       <c r="D67" t="n">
-        <v>13.44253037927239</v>
+        <v>15.70988888291981</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.87713116466836</v>
+        <v>24.22976734242156</v>
       </c>
       <c r="D68" t="n">
-        <v>16.85631597653205</v>
+        <v>15.87238304130893</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>25.53586012150845</v>
+        <v>25.0010965440794</v>
       </c>
       <c r="D69" t="n">
-        <v>15.73989957971506</v>
+        <v>17.18577138306815</v>
       </c>
     </row>
   </sheetData>
